--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>SlNo</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>error handling / work item handler/revision</t>
+  </si>
+  <si>
+    <t>jbpm session/jbpm prac</t>
+  </si>
+  <si>
+    <t>session/practice jbpm/spring revision</t>
+  </si>
+  <si>
+    <t>java revision</t>
+  </si>
+  <si>
+    <t>spring/spring mvc/spring boot</t>
+  </si>
+  <si>
+    <t>spring mvc,framework,boot interview question revision</t>
+  </si>
+  <si>
+    <t>microservices/rest&amp;soap wb services interview question revision</t>
   </si>
 </sst>
 </file>
@@ -581,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -644,35 +662,59 @@
         <v>7</v>
       </c>
       <c r="F4" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="10">
+        <v>44441</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="10">
+        <v>44442</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="10">
+        <v>44443</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>SlNo</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>microservices/rest&amp;soap wb services interview question revision</t>
+  </si>
+  <si>
+    <t>client interview</t>
+  </si>
+  <si>
+    <t>interview preparation/client interview</t>
+  </si>
+  <si>
+    <t>oops/collection</t>
+  </si>
+  <si>
+    <t>oops/collection revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring boot </t>
+  </si>
+  <si>
+    <t>spring boot revision/spring mvc</t>
   </si>
 </sst>
 </file>
@@ -599,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,7 +628,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,28 +738,52 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="10">
+        <v>44445</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="10">
+        <v>44446</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="10">
+        <v>44447</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>SlNo</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>spring boot revision/spring mvc</t>
+  </si>
+  <si>
+    <t>Lee code practice and discussion/algorithms exploration</t>
+  </si>
+  <si>
+    <t>practice</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,7 +634,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -789,10 +795,18 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="10">
+        <v>44452</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>SlNo</t>
   </si>
@@ -86,6 +86,33 @@
   </si>
   <si>
     <t>practice</t>
+  </si>
+  <si>
+    <t>exploring</t>
+  </si>
+  <si>
+    <t>watched recordings of flowable/exploring flowable</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>learning and revising core java</t>
+  </si>
+  <si>
+    <t>microservices</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>spring/springboot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rest services </t>
+  </si>
+  <si>
+    <t>full revision</t>
   </si>
 </sst>
 </file>
@@ -623,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,7 +661,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,55 +839,103 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="10">
+        <v>44453</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="10">
+        <v>44454</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="10">
+        <v>44455</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="10">
+        <v>44456</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="10">
+        <v>44459</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="10">
+        <v>44460</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Sep_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>SlNo</t>
   </si>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>full revision</t>
+  </si>
+  <si>
+    <t>flowable</t>
+  </si>
+  <si>
+    <t>flowable/office visit</t>
+  </si>
+  <si>
+    <t>flowable class/microservices</t>
+  </si>
+  <si>
+    <t>flowable session/office visit</t>
+  </si>
+  <si>
+    <t>flowable class</t>
+  </si>
+  <si>
+    <t>revision springboot/spring</t>
+  </si>
+  <si>
+    <t>rest api revision</t>
+  </si>
+  <si>
+    <t>collections revision</t>
   </si>
 </sst>
 </file>
@@ -650,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -941,64 +965,120 @@
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="10">
+        <v>44461</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="10">
+        <v>44462</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="10">
+        <v>44463</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="10">
+        <v>44464</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="10">
+        <v>44467</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="10">
+        <v>44468</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="10">
+        <v>44469</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2">
